--- a/engineering_basics/dft/dft.xlsx
+++ b/engineering_basics/dft/dft.xlsx
@@ -10,7 +10,6 @@
   <sheets>
     <sheet name="FFT Instructions" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Sanity" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="GoundRules" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="192">
   <si>
     <t xml:space="preserve">Line Num</t>
   </si>
@@ -57,7 +56,7 @@
     <t xml:space="preserve">LBL A</t>
   </si>
   <si>
-    <t xml:space="preserve">bin num</t>
+    <t xml:space="preserve">k</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -70,7 +69,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Main program </t>
+      <t xml:space="preserve">Support program </t>
     </r>
     <r>
       <rPr>
@@ -80,7 +79,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Discrete Fourier Transform</t>
+      <t xml:space="preserve">Discrete Fourier Transform (calculates bin k of an N point DFT)</t>
     </r>
   </si>
   <si>
@@ -111,6 +110,9 @@
     <t xml:space="preserve">This k in the DFT stored in.0</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clear results registers .4 and .5</t>
   </si>
   <si>
@@ -159,6 +161,9 @@
     <t xml:space="preserve">This is N in the DFT sum, temporarily stored in .1</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Build complex exponent arguments</t>
   </si>
   <si>
@@ -168,6 +173,9 @@
     <t xml:space="preserve">PI</t>
   </si>
   <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
   </si>
   <si>
@@ -192,6 +200,9 @@
     <t xml:space="preserve">2*PI*k/N</t>
   </si>
   <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHS</t>
   </si>
   <si>
@@ -207,6 +218,9 @@
     <t xml:space="preserve">-j*2*PI*k/N</t>
   </si>
   <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
     <t xml:space="preserve">e^x</t>
   </si>
   <si>
@@ -279,12 +293,21 @@
     <t xml:space="preserve">Get current column number pointed by R1</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Convert column num to n</t>
   </si>
   <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
     <t xml:space="preserve">n</t>
   </si>
   <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
     <t xml:space="preserve">y^x</t>
   </si>
   <si>
@@ -375,7 +398,7 @@
     <t xml:space="preserve">RCL .4</t>
   </si>
   <si>
-    <t xml:space="preserve">real(FFT(k))</t>
+    <t xml:space="preserve">real(DFT(k))</t>
   </si>
   <si>
     <t xml:space="preserve">Looping is done, so recall real result</t>
@@ -387,13 +410,13 @@
     <t xml:space="preserve">RCL .5</t>
   </si>
   <si>
-    <t xml:space="preserve">imag(FFT(k))</t>
+    <t xml:space="preserve">imag(DFT(k))</t>
   </si>
   <si>
     <t xml:space="preserve">Recall image result</t>
   </si>
   <si>
-    <t xml:space="preserve">FFT(k)</t>
+    <t xml:space="preserve">DFT(k)</t>
   </si>
   <si>
     <t xml:space="preserve">Convert to complex</t>
@@ -414,62 +437,196 @@
     <t xml:space="preserve">Return</t>
   </si>
   <si>
-    <t xml:space="preserve">Example Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A = [1 2 3 2 1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x-register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFT(k)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 + j0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.1180 + -1.5388i</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1180 + 0.3633i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1180 + -0.3633i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.1180 + 1.5388i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
+    <t xml:space="preserve">42 21 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main program Discrete Fourier Transform (Calculates all bins of a N point DFT) No input needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup to make a 2xN matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x&lt;&gt;y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 23 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIM B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear R.3 that holds the k value during runtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 .3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO .3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 21 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set label for the top of the k loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 .3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL .3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get k. This k gets incremented after each loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSB A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call the support program to calculate the DFT at k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store new k in R.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take advantage that k and column indeces need to be the same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support program provides the DFT(k), grab real and imag and store in B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k+1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get current k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 30 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x&lt;y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if we need to do another loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTO 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goto Label 1 for another iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 16 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL MATRIX B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b [2 5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When done, get descriptor of B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 16 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATRIX 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transpose B so it is N rows and 2 columns (for ease of retrieval via user mode – see Sanity sheet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descriptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INPUT</t>
   </si>
   <si>
     <t xml:space="preserve">MATRIX A</t>
   </si>
   <si>
-    <t xml:space="preserve">[1 N]</t>
+    <t xml:space="preserve">a [1 5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTPUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATRIX B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b [5 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imag col</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="000"/>
     <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -657,7 +814,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,7 +920,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFE6E64C"/>
       </patternFill>
     </fill>
     <fill>
@@ -772,8 +929,14 @@
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E64C"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -925,6 +1088,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1074,7 +1286,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1124,47 +1336,131 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="18" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="19" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="19" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="19" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="19" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="19" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="20" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="20" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="20" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="20" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="20" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1303,7 +1599,7 @@
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFE6E64C"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1449,10 +1745,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H76" activeCellId="0" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1526,7 +1822,7 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1537,7 +1833,7 @@
       <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1563,7 +1859,7 @@
       <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1589,7 +1885,7 @@
       <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1610,10 +1906,10 @@
       <c r="A7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14" t="n">
+      <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="n">
@@ -1627,7 +1923,7 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,10 +1931,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14" t="s">
         <v>25</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -1651,7 +1947,7 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,10 +1955,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="14" t="s">
         <v>27</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -1677,7 +1973,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,10 +1981,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="14" t="s">
         <v>29</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1703,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,16 +2007,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="C11" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -1729,7 +2025,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,16 +2033,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="C12" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>0</v>
@@ -1755,33 +2051,33 @@
         <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="14" t="n">
+      <c r="B13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,51 +2085,51 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>42</v>
+      <c r="B15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,25 +2137,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,51 +2163,51 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>50</v>
+      <c r="B18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,51 +2215,51 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>55</v>
+      <c r="B20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,25 +2267,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="C21" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,25 +2293,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2023,25 +2319,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,25 +2345,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>66</v>
+        <v>34</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,25 +2371,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,25 +2397,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,25 +2423,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,103 +2449,103 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="14" t="n">
+      <c r="B29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="15" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="n">
-        <v>30</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="12" t="n">
-        <v>14</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>81</v>
+      <c r="B31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,51 +2553,51 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>42</v>
+      <c r="B33" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,25 +2605,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,25 +2631,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,51 +2657,51 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="14" t="n">
+      <c r="B37" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="15" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,25 +2709,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,77 +2735,77 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="C39" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="D39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" s="8" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>104</v>
+        <v>111</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,25 +2813,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,25 +2839,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,25 +2865,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>114</v>
+        <v>121</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,25 +2891,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,25 +2917,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="C46" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="D46" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,47 +2943,790 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="11" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="11" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="11" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="11" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="11" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="24"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -2695,23 +3734,23 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A49:B49 C1:C2 C4:C716">
+  <conditionalFormatting sqref="C1:C2 C4:C723">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO C" dxfId="0">
-      <formula>NOT(ISERROR(SEARCH("uSTO C",A1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uSTO C",C1)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO B" dxfId="1">
-      <formula>NOT(ISERROR(SEARCH("uSTO B",A1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uSTO B",C1)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO B" dxfId="2">
-      <formula>NOT(ISERROR(SEARCH("uSTO B",A1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uSTO B",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:B49 C1:C2 C4:C725">
+  <conditionalFormatting sqref="C1:C2 C4:C732">
     <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO A" dxfId="0">
-      <formula>NOT(ISERROR(SEARCH("uSTO A",A1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uSTO A",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C50">
+  <conditionalFormatting sqref="C70 C4:C53">
     <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO C" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("uSTO C",C4)))</formula>
     </cfRule>
@@ -2740,10 +3779,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2751,103 +3790,142 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="18.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="12.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="21.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="20.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="19" width="20.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="19" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="5" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="27" width="10.01"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="27" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="A1" s="0"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="21" t="n">
+      <c r="A3" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="5"/>
+      <c r="D6" s="40" t="n">
+        <v>-2.118</v>
+      </c>
+      <c r="E6" s="41" t="n">
+        <v>-1.5388</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="D7" s="40" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="E7" s="41" t="n">
+        <v>0.36327</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
+      <c r="D8" s="40" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="E8" s="41" t="n">
+        <v>-0.36327</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="42" t="n">
+        <v>-2.118</v>
+      </c>
+      <c r="E9" s="43" t="n">
+        <v>1.53884</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2857,56 +3935,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:C1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="12.94"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>